--- a/analysis/heat/model/pcrModel/tapeCupShift.xlsx
+++ b/analysis/heat/model/pcrModel/tapeCupShift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\heat\model\pcrModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1848F-25F0-4123-9712-D7E390EA1385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F2C186-2A70-4C2A-856C-C26FD8155996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3ECEF00A-D3CF-44E9-A8E7-DC52B69C13FF}"/>
   </bookViews>
@@ -87,10 +87,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -410,26 +410,26 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -477,16 +477,16 @@
         <v>40</v>
       </c>
       <c r="H3">
-        <v>-8.5454545454552999E-2</v>
+        <v>1.941818182</v>
       </c>
       <c r="I3">
-        <v>0.24090909090908399</v>
+        <v>1.586363636</v>
       </c>
       <c r="J3">
-        <v>0.68799999999998795</v>
+        <v>1.8329090910000001</v>
       </c>
       <c r="K3">
-        <v>-0.35454545454547298</v>
+        <v>4.0909091000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -509,16 +509,16 @@
         <v>45</v>
       </c>
       <c r="H4">
-        <v>-0.10454545454545799</v>
+        <v>1.5118181820000001</v>
       </c>
       <c r="I4">
-        <v>-9.9999999999994302E-2</v>
+        <v>1.2190909089999999</v>
       </c>
       <c r="J4">
-        <v>5.1000000000001898E-2</v>
+        <v>1.4954545450000001</v>
       </c>
       <c r="K4">
-        <v>-0.934545454545471</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -541,16 +541,16 @@
         <v>50</v>
       </c>
       <c r="H5">
-        <v>-0.688181818181831</v>
+        <v>1.01</v>
       </c>
       <c r="I5">
-        <v>-0.56181818181818199</v>
+        <v>0.83181818200000002</v>
       </c>
       <c r="J5">
-        <v>-0.40500000000000103</v>
+        <v>1.0595454550000001</v>
       </c>
       <c r="K5">
-        <v>-1.57454545454545</v>
+        <v>-0.35636363599999998</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -573,16 +573,16 @@
         <v>55</v>
       </c>
       <c r="H6">
-        <v>-1.4518181818181599</v>
+        <v>0.43909090899999997</v>
       </c>
       <c r="I6">
-        <v>-1.0236363636363699</v>
+        <v>0.49272727300000002</v>
       </c>
       <c r="J6">
-        <v>-1.0580000000000001</v>
+        <v>0.340454545</v>
       </c>
       <c r="K6">
-        <v>-1.1099999999999799</v>
+        <v>0.42181818199999999</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -605,16 +605,16 @@
         <v>60</v>
       </c>
       <c r="H7">
-        <v>-2.1445454545454501</v>
+        <v>-0.16727272700000001</v>
       </c>
       <c r="I7">
-        <v>-1.4390909090909001</v>
+        <v>3.1818182E-2</v>
       </c>
       <c r="J7">
-        <v>-1.14900000000001</v>
+        <v>0.32854545499999999</v>
       </c>
       <c r="K7">
-        <v>-2.4190909090908899</v>
+        <v>-1.106363636</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -637,16 +637,16 @@
         <v>65</v>
       </c>
       <c r="H8">
-        <v>-2.7090909090909401</v>
+        <v>-0.76363636400000001</v>
       </c>
       <c r="I8">
-        <v>-2.1936363636363798</v>
+        <v>-0.54363636400000004</v>
       </c>
       <c r="J8">
-        <v>-1.89700000000001</v>
+        <v>-0.153818182</v>
       </c>
       <c r="K8">
-        <v>-2.8136363636363901</v>
+        <v>-1.4736363640000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -669,16 +669,16 @@
         <v>70</v>
       </c>
       <c r="H9">
-        <v>-2.98</v>
+        <v>-1.250909091</v>
       </c>
       <c r="I9">
-        <v>-2.6699999999999799</v>
+        <v>-1.195454545</v>
       </c>
       <c r="J9">
-        <v>-2.2509999999999901</v>
+        <v>-0.79772727300000001</v>
       </c>
       <c r="K9">
-        <v>-3.6963636363636501</v>
+        <v>-2.078181818</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -692,11 +692,11 @@
       </c>
       <c r="H12">
         <f>AVERAGE(H3:K9)</f>
-        <v>-1.3155227272727301</v>
+        <v>0.16454220782142864</v>
       </c>
       <c r="I12">
         <f>_xlfn.STDEV.P(H3:K9)</f>
-        <v>1.106668939676837</v>
+        <v>1.0518981127456553</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -718,19 +718,19 @@
       </c>
       <c r="H17">
         <f>ABS(H3)</f>
-        <v>8.5454545454552999E-2</v>
+        <v>1.941818182</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17:K17" si="1">ABS(I3)</f>
-        <v>0.24090909090908399</v>
+        <v>1.586363636</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0.68799999999998795</v>
+        <f>ABS(J3)</f>
+        <v>1.8329090910000001</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>0.35454545454547298</v>
+        <v>4.0909091000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -752,19 +752,19 @@
       </c>
       <c r="H18">
         <f t="shared" ref="H18:K18" si="3">ABS(H4)</f>
-        <v>0.10454545454545799</v>
+        <v>1.5118181820000001</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>9.9999999999994302E-2</v>
+        <v>1.2190909089999999</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>5.1000000000001898E-2</v>
+        <v>1.4954545450000001</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>0.934545454545471</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -786,19 +786,19 @@
       </c>
       <c r="H19">
         <f t="shared" ref="H19:K19" si="5">ABS(H5)</f>
-        <v>0.688181818181831</v>
+        <v>1.01</v>
       </c>
       <c r="I19">
         <f t="shared" si="5"/>
-        <v>0.56181818181818199</v>
+        <v>0.83181818200000002</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>0.40500000000000103</v>
+        <v>1.0595454550000001</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>1.57454545454545</v>
+        <v>0.35636363599999998</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -820,19 +820,19 @@
       </c>
       <c r="H20">
         <f t="shared" ref="H20:K20" si="7">ABS(H6)</f>
-        <v>1.4518181818181599</v>
+        <v>0.43909090899999997</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>1.0236363636363699</v>
+        <v>0.49272727300000002</v>
       </c>
       <c r="J20">
         <f t="shared" si="7"/>
-        <v>1.0580000000000001</v>
+        <v>0.340454545</v>
       </c>
       <c r="K20">
         <f t="shared" si="7"/>
-        <v>1.1099999999999799</v>
+        <v>0.42181818199999999</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -854,19 +854,19 @@
       </c>
       <c r="H21">
         <f t="shared" ref="H21:K21" si="9">ABS(H7)</f>
-        <v>2.1445454545454501</v>
+        <v>0.16727272700000001</v>
       </c>
       <c r="I21">
         <f t="shared" si="9"/>
-        <v>1.4390909090909001</v>
+        <v>3.1818182E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="9"/>
-        <v>1.14900000000001</v>
+        <v>0.32854545499999999</v>
       </c>
       <c r="K21">
         <f t="shared" si="9"/>
-        <v>2.4190909090908899</v>
+        <v>1.106363636</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -888,19 +888,19 @@
       </c>
       <c r="H22">
         <f t="shared" ref="H22:K22" si="11">ABS(H8)</f>
-        <v>2.7090909090909401</v>
+        <v>0.76363636400000001</v>
       </c>
       <c r="I22">
         <f t="shared" si="11"/>
-        <v>2.1936363636363798</v>
+        <v>0.54363636400000004</v>
       </c>
       <c r="J22">
         <f t="shared" si="11"/>
-        <v>1.89700000000001</v>
+        <v>0.153818182</v>
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
-        <v>2.8136363636363901</v>
+        <v>1.4736363640000001</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -922,19 +922,19 @@
       </c>
       <c r="H23">
         <f t="shared" ref="H23:K23" si="13">ABS(H9)</f>
-        <v>2.98</v>
+        <v>1.250909091</v>
       </c>
       <c r="I23">
         <f t="shared" si="13"/>
-        <v>2.6699999999999799</v>
+        <v>1.195454545</v>
       </c>
       <c r="J23">
         <f t="shared" si="13"/>
-        <v>2.2509999999999901</v>
+        <v>0.79772727300000001</v>
       </c>
       <c r="K23">
         <f t="shared" si="13"/>
-        <v>3.6963636363636501</v>
+        <v>2.078181818</v>
       </c>
     </row>
   </sheetData>
@@ -944,18 +944,6 @@
   </mergeCells>
   <conditionalFormatting sqref="B3:E9">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:K9">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -978,6 +966,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H3:K9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H17:K23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
